--- a/datos.xlsx
+++ b/datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>nombre_base_datos</t>
   </si>
@@ -109,6 +109,87 @@
   </si>
   <si>
     <t>db20</t>
+  </si>
+  <si>
+    <t>db21</t>
+  </si>
+  <si>
+    <t>db22</t>
+  </si>
+  <si>
+    <t>db23</t>
+  </si>
+  <si>
+    <t>db24</t>
+  </si>
+  <si>
+    <t>db25</t>
+  </si>
+  <si>
+    <t>db26</t>
+  </si>
+  <si>
+    <t>db27</t>
+  </si>
+  <si>
+    <t>db28</t>
+  </si>
+  <si>
+    <t>db29</t>
+  </si>
+  <si>
+    <t>db30</t>
+  </si>
+  <si>
+    <t>db31</t>
+  </si>
+  <si>
+    <t>db32</t>
+  </si>
+  <si>
+    <t>db33</t>
+  </si>
+  <si>
+    <t>db34</t>
+  </si>
+  <si>
+    <t>db35</t>
+  </si>
+  <si>
+    <t>db36</t>
+  </si>
+  <si>
+    <t>db37</t>
+  </si>
+  <si>
+    <t>db38</t>
+  </si>
+  <si>
+    <t>db39</t>
+  </si>
+  <si>
+    <t>db40</t>
+  </si>
+  <si>
+    <t>db41</t>
+  </si>
+  <si>
+    <t>db42</t>
+  </si>
+  <si>
+    <t>db43</t>
+  </si>
+  <si>
+    <t>db44</t>
+  </si>
+  <si>
+    <t>db45</t>
+  </si>
+  <si>
+    <t>db46</t>
+  </si>
+  <si>
+    <t>db47</t>
   </si>
 </sst>
 </file>
@@ -435,22 +516,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G14" si="0">C4/D4</f>
+        <f>C4/D4</f>
         <v>0.80147058823529416</v>
       </c>
     </row>
@@ -571,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5:G48" si="0">C5/D5</f>
         <v>0.79562043795620441</v>
       </c>
     </row>
@@ -796,7 +876,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -818,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:G21" si="1">C16/D16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -842,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
     </row>
@@ -866,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
     </row>
@@ -890,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
     </row>
@@ -914,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
     </row>
@@ -938,8 +1021,656 @@
         <v>9</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C22">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73118279569892475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C23">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73118279569892475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>82</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82926829268292679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7640449438202247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73118279569892475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86075949367088611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>85</v>
+      </c>
+      <c r="E28">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C29">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>89</v>
+      </c>
+      <c r="E29">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7640449438202247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74725274725274726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="C31">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C32">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="C34">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="C35">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C36">
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C37">
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="C38">
+        <v>68</v>
+      </c>
+      <c r="D38">
+        <v>84</v>
+      </c>
+      <c r="E38">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>94</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72340425531914898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C40">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79069767441860461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="C41">
+        <v>67</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77011494252873558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="C42">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8271604938271605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="C43">
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78823529411764703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C44">
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <v>78</v>
+      </c>
+      <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87179487179487181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C45">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>89</v>
+      </c>
+      <c r="E45">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7640449438202247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C46">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7816091954022989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C48">
+        <v>68</v>
+      </c>
+      <c r="D48">
+        <v>81</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83950617283950613</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>nombre_base_datos</t>
   </si>
@@ -196,17 +196,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,8 +227,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +512,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +556,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.83</v>
       </c>
       <c r="C2">
@@ -578,7 +571,7 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>C2/D2</f>
         <v>0.8257575757575758</v>
       </c>
@@ -587,7 +580,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.7</v>
       </c>
       <c r="C3">
@@ -602,7 +595,7 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>C3/D3</f>
         <v>0.80740740740740746</v>
       </c>
@@ -611,7 +604,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.76</v>
       </c>
       <c r="C4">
@@ -626,7 +619,7 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>C4/D4</f>
         <v>0.80147058823529416</v>
       </c>
@@ -635,7 +628,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.78</v>
       </c>
       <c r="C5">
@@ -650,7 +643,7 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G48" si="0">C5/D5</f>
         <v>0.79562043795620441</v>
       </c>
@@ -659,7 +652,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.76</v>
       </c>
       <c r="C6">
@@ -674,7 +667,7 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0.86507936507936511</v>
       </c>
@@ -683,7 +676,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.67</v>
       </c>
       <c r="C7">
@@ -698,7 +691,7 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0.85599999999999998</v>
       </c>
@@ -707,7 +700,7 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.8</v>
       </c>
       <c r="C8">
@@ -722,7 +715,7 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0.689873417721519</v>
       </c>
@@ -731,7 +724,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1.7</v>
       </c>
       <c r="C9">
@@ -746,7 +739,7 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.65644171779141103</v>
       </c>
@@ -755,7 +748,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.65</v>
       </c>
       <c r="C10">
@@ -770,7 +763,7 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0.93150684931506844</v>
       </c>
@@ -779,7 +772,7 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.6</v>
       </c>
       <c r="C11">
@@ -794,7 +787,7 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
@@ -803,7 +796,7 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1.67</v>
       </c>
       <c r="C12">
@@ -818,7 +811,7 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
@@ -827,7 +820,7 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.5</v>
       </c>
       <c r="C13">
@@ -842,7 +835,7 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
@@ -851,7 +844,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1.7</v>
       </c>
       <c r="C14">
@@ -866,26 +859,40 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="G15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="C15">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73118279569892475</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1.78</v>
       </c>
       <c r="C16">
@@ -900,7 +907,7 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -909,7 +916,7 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.6</v>
       </c>
       <c r="C17">
@@ -924,7 +931,7 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
@@ -933,7 +940,7 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.62</v>
       </c>
       <c r="C18">
@@ -948,7 +955,7 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
@@ -957,7 +964,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1.76</v>
       </c>
       <c r="C19">
@@ -972,7 +979,7 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
@@ -981,7 +988,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1.6</v>
       </c>
       <c r="C20">
@@ -996,7 +1003,7 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
@@ -1005,7 +1012,7 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1.69</v>
       </c>
       <c r="C21">
@@ -1020,7 +1027,7 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
@@ -1029,7 +1036,7 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1.7</v>
       </c>
       <c r="C22">
@@ -1044,7 +1051,7 @@
       <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
@@ -1053,7 +1060,7 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1.76</v>
       </c>
       <c r="C23">
@@ -1068,7 +1075,7 @@
       <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
@@ -1077,7 +1084,7 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1.78</v>
       </c>
       <c r="C24">
@@ -1092,7 +1099,7 @@
       <c r="F24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
       </c>
@@ -1101,7 +1108,7 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.65</v>
       </c>
       <c r="C25">
@@ -1116,7 +1123,7 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
@@ -1125,7 +1132,7 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>1.64</v>
       </c>
       <c r="C26">
@@ -1140,7 +1147,7 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
@@ -1149,7 +1156,7 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1.76</v>
       </c>
       <c r="C27">
@@ -1164,7 +1171,7 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>0.86075949367088611</v>
       </c>
@@ -1173,7 +1180,7 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1.77</v>
       </c>
       <c r="C28">
@@ -1188,7 +1195,7 @@
       <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -1197,7 +1204,7 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1.6</v>
       </c>
       <c r="C29">
@@ -1212,7 +1219,7 @@
       <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
@@ -1221,7 +1228,7 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>1.62</v>
       </c>
       <c r="C30">
@@ -1236,7 +1243,7 @@
       <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>0.74725274725274726</v>
       </c>
@@ -1245,7 +1252,7 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1.84</v>
       </c>
       <c r="C31">
@@ -1260,7 +1267,7 @@
       <c r="F31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -1269,7 +1276,7 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1.9</v>
       </c>
       <c r="C32">
@@ -1284,7 +1291,7 @@
       <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
@@ -1293,7 +1300,7 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>1.63</v>
       </c>
       <c r="C33">
@@ -1308,7 +1315,7 @@
       <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -1317,7 +1324,7 @@
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>1.71</v>
       </c>
       <c r="C34">
@@ -1332,7 +1339,7 @@
       <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>0.73913043478260865</v>
       </c>
@@ -1341,7 +1348,7 @@
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>1.53</v>
       </c>
       <c r="C35">
@@ -1356,7 +1363,7 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -1365,7 +1372,7 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>1.7</v>
       </c>
       <c r="C36">
@@ -1380,7 +1387,7 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
@@ -1389,7 +1396,7 @@
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1.8</v>
       </c>
       <c r="C37">
@@ -1404,7 +1411,7 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -1413,7 +1420,7 @@
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1.88</v>
       </c>
       <c r="C38">
@@ -1428,7 +1435,7 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
@@ -1437,7 +1444,7 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>1.77</v>
       </c>
       <c r="C39">
@@ -1452,7 +1459,7 @@
       <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>0.72340425531914898</v>
       </c>
@@ -1461,7 +1468,7 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>1.7</v>
       </c>
       <c r="C40">
@@ -1476,7 +1483,7 @@
       <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
@@ -1485,7 +1492,7 @@
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>1.79</v>
       </c>
       <c r="C41">
@@ -1500,7 +1507,7 @@
       <c r="F41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>0.77011494252873558</v>
       </c>
@@ -1509,7 +1516,7 @@
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>1.64</v>
       </c>
       <c r="C42">
@@ -1524,7 +1531,7 @@
       <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>0.8271604938271605</v>
       </c>
@@ -1533,7 +1540,7 @@
       <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>1.65</v>
       </c>
       <c r="C43">
@@ -1548,7 +1555,7 @@
       <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>0.78823529411764703</v>
       </c>
@@ -1557,7 +1564,7 @@
       <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1.76</v>
       </c>
       <c r="C44">
@@ -1572,7 +1579,7 @@
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>0.87179487179487181</v>
       </c>
@@ -1581,7 +1588,7 @@
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>1.63</v>
       </c>
       <c r="C45">
@@ -1596,7 +1603,7 @@
       <c r="F45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
@@ -1605,7 +1612,7 @@
       <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>1.78</v>
       </c>
       <c r="C46">
@@ -1620,7 +1627,7 @@
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
@@ -1629,7 +1636,7 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>1.68</v>
       </c>
       <c r="C47">
@@ -1644,7 +1651,7 @@
       <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
@@ -1653,7 +1660,7 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>1.78</v>
       </c>
       <c r="C48">
@@ -1668,7 +1675,7 @@
       <c r="F48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>0.83950617283950613</v>
       </c>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>nombre_base_datos</t>
   </si>
@@ -201,19 +201,71 @@
   </si>
   <si>
     <t>db47</t>
+  </si>
+  <si>
+    <t>db48</t>
+  </si>
+  <si>
+    <t>db49</t>
+  </si>
+  <si>
+    <t>db50</t>
+  </si>
+  <si>
+    <t>db51</t>
+  </si>
+  <si>
+    <t>db52</t>
+  </si>
+  <si>
+    <t>db53</t>
+  </si>
+  <si>
+    <t>db54</t>
+  </si>
+  <si>
+    <t>db55</t>
+  </si>
+  <si>
+    <t>db56</t>
+  </si>
+  <si>
+    <t>db57</t>
+  </si>
+  <si>
+    <t>db58</t>
+  </si>
+  <si>
+    <t>db59</t>
+  </si>
+  <si>
+    <t>db60</t>
+  </si>
+  <si>
+    <t>db61</t>
+  </si>
+  <si>
+    <t>db62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -239,11 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J43" sqref="A43:J43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,19 +648,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G48" si="0">C2/D2</f>
+        <f t="shared" ref="G2:G63" si="0">C2/D2</f>
         <v>0.76760563380281688</v>
       </c>
-      <c r="H2">
-        <v>0.71400644065523999</v>
+      <c r="H2" s="4">
+        <v>0.71400644065523977</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I48" si="1">G2/H2</f>
-        <v>1.0750682208109905</v>
+        <f t="shared" ref="I2:I63" si="1">G2/H2</f>
+        <v>1.0750682208109907</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J48" si="2">B2/H2</f>
-        <v>2.5630020904582018</v>
+        <f t="shared" ref="J2:J63" si="2">B2/H2</f>
+        <v>2.5630020904582027</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -632,7 +686,7 @@
         <f t="shared" si="0"/>
         <v>0.75172413793103443</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.72003276456084997</v>
       </c>
       <c r="I3">
@@ -667,16 +721,16 @@
         <f t="shared" si="0"/>
         <v>0.80147058823529416</v>
       </c>
-      <c r="H4">
-        <v>0.77019895434760899</v>
+      <c r="H4" s="4">
+        <v>0.7701989543476091</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1.0406020207001885</v>
+        <v>1.0406020207001883</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>2.2851238502274964</v>
+        <v>2.285123850227496</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,16 +756,16 @@
         <f t="shared" si="0"/>
         <v>0.79562043795620441</v>
       </c>
-      <c r="H5">
-        <v>0.70443997090831201</v>
+      <c r="H5" s="4">
+        <v>0.70443997090831234</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1.1294368162134858</v>
+        <v>1.1294368162134851</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>2.5268299266222076</v>
+        <v>2.5268299266222063</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,16 +791,16 @@
         <f t="shared" si="0"/>
         <v>0.80147058823529416</v>
       </c>
-      <c r="H6">
-        <v>0.75323303754902404</v>
+      <c r="H6" s="4">
+        <v>0.75323303754902438</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>1.0640406730475236</v>
+        <v>1.0640406730475231</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2.336594270648213</v>
+        <v>2.3365942706482121</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -772,16 +826,16 @@
         <f t="shared" si="0"/>
         <v>0.81060606060606055</v>
       </c>
-      <c r="H7">
-        <v>0.76227181974100899</v>
+      <c r="H7" s="4">
+        <v>0.76227181974100933</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>1.0634081434119835</v>
+        <v>1.0634081434119831</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>2.1908195433059592</v>
+        <v>2.1908195433059583</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,16 +861,16 @@
         <f t="shared" si="0"/>
         <v>0.689873417721519</v>
       </c>
-      <c r="H8">
-        <v>0.65678586811234096</v>
+      <c r="H8" s="4">
+        <v>0.65678586811234074</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.0503779865183069</v>
+        <v>1.0503779865183074</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>2.7406192602367567</v>
+        <v>2.7406192602367576</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,7 +896,7 @@
         <f t="shared" si="0"/>
         <v>0.65644171779141103</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0.68676322807014401</v>
       </c>
       <c r="I9">
@@ -877,16 +931,16 @@
         <f t="shared" si="0"/>
         <v>0.66019417475728159</v>
       </c>
-      <c r="H10">
-        <v>0.63512929369686499</v>
+      <c r="H10" s="4">
+        <v>0.63512929369686477</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.0394642182452689</v>
+        <v>1.0394642182452694</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>2.5978962336879916</v>
+        <v>2.5978962336879925</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,16 +966,16 @@
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
-      <c r="H11">
-        <v>0.65492678198584298</v>
+      <c r="H11" s="4">
+        <v>0.65492678198584342</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.2073069786840638</v>
+        <v>1.2073069786840629</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>2.4430211803959883</v>
+        <v>2.4430211803959865</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,16 +1001,16 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="H12">
-        <v>0.66496331561689404</v>
+      <c r="H12" s="4">
+        <v>0.66496331561689381</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.2782660036087032</v>
+        <v>1.2782660036087037</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>2.5114167365018054</v>
+        <v>2.5114167365018063</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,16 +1036,16 @@
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
-      <c r="H13">
-        <v>0.669514657861634</v>
+      <c r="H13" s="4">
+        <v>0.66951465786163422</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.1285123435067546</v>
+        <v>1.1285123435067541</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>2.240428917256057</v>
+        <v>2.2404289172560561</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,16 +1071,16 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="H14">
-        <v>0.73861109797385305</v>
+      <c r="H14" s="4">
+        <v>0.73861109797385283</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.1508085951209064</v>
+        <v>1.1508085951209068</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>2.3016171902418128</v>
+        <v>2.3016171902418137</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,16 +1106,16 @@
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
-      <c r="H15">
-        <v>0.72286134076268804</v>
+      <c r="H15" s="4">
+        <v>0.72286134076268849</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.0115118273270178</v>
+        <v>1.0115118273270172</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>2.3240971750231361</v>
+        <v>2.3240971750231347</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,16 +1141,16 @@
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="H16">
-        <v>0.71952895790982196</v>
+      <c r="H16" s="4">
+        <v>0.71952895790982185</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.0739349184388463</v>
+        <v>1.0739349184388465</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>2.4738406709450129</v>
+        <v>2.4738406709450134</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1122,7 +1176,7 @@
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.65950785364818998</v>
       </c>
       <c r="I17">
@@ -1157,16 +1211,16 @@
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="H18">
-        <v>0.70934041957896798</v>
+      <c r="H18" s="4">
+        <v>0.70934041957896843</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>1.0893602724428537</v>
+        <v>1.0893602724428531</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.28381177116843</v>
+        <v>2.2838117711684287</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,7 +1246,7 @@
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>0.69509870216184999</v>
       </c>
       <c r="I19">
@@ -1227,16 +1281,16 @@
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="H20">
-        <v>0.69546232318048495</v>
+      <c r="H20" s="4">
+        <v>0.69546232318048462</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>1.1110986849631768</v>
+        <v>1.1110986849631774</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>2.3006278653355192</v>
+        <v>2.3006278653355201</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,16 +1316,16 @@
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
-      <c r="H21">
-        <v>0.72275684787807004</v>
+      <c r="H21" s="4">
+        <v>0.72275684787807015</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>1.0814275889561096</v>
+        <v>1.0814275889561094</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>2.3382690941796582</v>
+        <v>2.3382690941796578</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,8 +1351,8 @@
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
-      <c r="H22">
-        <v>0.72231885575030896</v>
+      <c r="H22" s="4">
+        <v>0.72231885575030885</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -1306,7 +1360,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>2.353531250730156</v>
+        <v>2.3535312507301565</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1332,16 +1386,16 @@
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
-      <c r="H23">
-        <v>0.68143100428584003</v>
+      <c r="H23" s="4">
+        <v>0.68143100428584025</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.0730107539870835</v>
+        <v>1.0730107539870832</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>2.5828000031265561</v>
+        <v>2.5828000031265557</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,16 +1421,16 @@
         <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
       </c>
-      <c r="H24">
-        <v>0.76033227277450099</v>
+      <c r="H24" s="4">
+        <v>0.76033227277450066</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>1.0906656502385119</v>
+        <v>1.0906656502385124</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>2.3410817398354884</v>
+        <v>2.3410817398354897</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,16 +1456,16 @@
         <f t="shared" si="0"/>
         <v>0.64761904761904765</v>
       </c>
-      <c r="H25">
-        <v>0.59075893493759402</v>
+      <c r="H25" s="4">
+        <v>0.59075893493759424</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>1.0962492639869428</v>
+        <v>1.0962492639869423</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>2.79301742626085</v>
+        <v>2.7930174262608491</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,16 +1491,16 @@
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
-      <c r="H26">
-        <v>0.67518525360624804</v>
+      <c r="H26" s="4">
+        <v>0.67518525360624848</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>1.0829365596976339</v>
+        <v>1.0829365596976332</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>2.4289630012512222</v>
+        <v>2.4289630012512209</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1472,16 +1526,16 @@
         <f t="shared" si="0"/>
         <v>0.86075949367088611</v>
       </c>
-      <c r="H27">
-        <v>0.81575636182878297</v>
+      <c r="H27" s="4">
+        <v>0.81575636182878331</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>1.0551673685280418</v>
+        <v>1.0551673685280414</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>2.1575069252961607</v>
+        <v>2.1575069252961598</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,16 +1561,16 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H28">
-        <v>0.729794810514097</v>
+      <c r="H28" s="4">
+        <v>0.72979481051409689</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>1.0961985320729366</v>
+        <v>1.0961985320729368</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>2.4253392522113719</v>
+        <v>2.4253392522113724</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1542,7 +1596,7 @@
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>0.66088393121806199</v>
       </c>
       <c r="I29">
@@ -1577,7 +1631,7 @@
         <f t="shared" si="0"/>
         <v>0.74725274725274726</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>0.66759333378225705</v>
       </c>
       <c r="I30">
@@ -1612,16 +1666,16 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H31">
-        <v>0.72927152883639101</v>
+      <c r="H31" s="4">
+        <v>0.72927152883639124</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>1.0969850986455782</v>
+        <v>1.0969850986455778</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>2.52306572688483</v>
+        <v>2.5230657268848291</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1647,16 +1701,16 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="H32">
-        <v>0.65358299301902301</v>
+      <c r="H32" s="4">
+        <v>0.65358299301902334</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>1.0404187490542738</v>
+        <v>1.0404187490542731</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="2"/>
-        <v>2.9070523870634117</v>
+        <v>2.90705238706341</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,7 +1736,7 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333337</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>0.69730133561475405</v>
       </c>
       <c r="I33">
@@ -1717,16 +1771,16 @@
         <f t="shared" si="0"/>
         <v>0.73913043478260865</v>
       </c>
-      <c r="H34">
-        <v>0.65141899243183499</v>
+      <c r="H34" s="4">
+        <v>0.6514189924318351</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>1.1346467379210652</v>
+        <v>1.134646737921065</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>2.6250386001432644</v>
+        <v>2.625038600143264</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,16 +1806,16 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333337</v>
       </c>
-      <c r="H35">
-        <v>0.70344039290515703</v>
+      <c r="H35" s="4">
+        <v>0.7034403929051567</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>1.0069557285557187</v>
+        <v>1.0069557285557191</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>2.1750243736803521</v>
+        <v>2.1750243736803534</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,16 +1841,16 @@
         <f t="shared" si="0"/>
         <v>0.68686868686868685</v>
       </c>
-      <c r="H36">
-        <v>0.63614539560267902</v>
+      <c r="H36" s="4">
+        <v>0.63614539560267935</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>1.0797353743603739</v>
+        <v>1.0797353743603735</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="2"/>
-        <v>2.6723450515419258</v>
+        <v>2.6723450515419245</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,16 +1876,16 @@
         <f t="shared" si="0"/>
         <v>0.74725274725274726</v>
       </c>
-      <c r="H37">
-        <v>0.68959689049786199</v>
+      <c r="H37" s="4">
+        <v>0.68959689049786255</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>1.083608057909397</v>
+        <v>1.0836080579093961</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="2"/>
-        <v>2.6102205865523413</v>
+        <v>2.6102205865523391</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,7 +1911,7 @@
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>0.73161656594233904</v>
       </c>
       <c r="I38">
@@ -1892,16 +1946,16 @@
         <f t="shared" si="0"/>
         <v>0.72340425531914898</v>
       </c>
-      <c r="H39">
-        <v>0.67294336621733297</v>
+      <c r="H39" s="4">
+        <v>0.67294336621733275</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>1.0749853429501217</v>
+        <v>1.0749853429501219</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="2"/>
-        <v>2.6302361964711944</v>
+        <v>2.6302361964711953</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1927,16 +1981,16 @@
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
-      <c r="H40">
-        <v>0.66947597744088005</v>
+      <c r="H40" s="4">
+        <v>0.66947597744088039</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>1.0921718184630365</v>
+        <v>1.092171818463036</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="2"/>
-        <v>2.5392994779265599</v>
+        <v>2.5392994779265585</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,7 +2016,7 @@
         <f t="shared" si="0"/>
         <v>0.77011494252873558</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>0.75689674012923303</v>
       </c>
       <c r="I41">
@@ -1997,51 +2051,51 @@
         <f t="shared" si="0"/>
         <v>0.77906976744186052</v>
       </c>
-      <c r="H42">
-        <v>0.71319326787936299</v>
+      <c r="H42" s="4">
+        <v>0.71319326787936321</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>1.092368369878725</v>
+        <v>1.0923683698787245</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="2"/>
-        <v>2.2995169386223187</v>
+        <v>2.2995169386223178</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="C43">
         <v>67</v>
       </c>
       <c r="D43">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="H43">
-        <v>1.3998800269315199</v>
+        <v>0.7528089887640449</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.67283354464977407</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>0.56307346269196135</v>
+        <v>1.1188636398262515</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="2"/>
-        <v>1.1786724349633968</v>
+        <v>2.6158029931699112</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2067,16 +2121,16 @@
         <f t="shared" si="0"/>
         <v>0.87179487179487181</v>
       </c>
-      <c r="H44">
-        <v>0.86373458348553001</v>
+      <c r="H44" s="4">
+        <v>0.86373458348553034</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>1.0093319041097268</v>
+        <v>1.0093319041097264</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="2"/>
-        <v>2.0376629970026956</v>
+        <v>2.0376629970026947</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,16 +2156,16 @@
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
-      <c r="H45">
-        <v>0.70727763495714102</v>
+      <c r="H45" s="4">
+        <v>0.70727763495714058</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>1.0802617049619045</v>
+        <v>1.0802617049619052</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="2"/>
-        <v>2.3046112579238747</v>
+        <v>2.3046112579238764</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2137,7 +2191,7 @@
         <f t="shared" si="0"/>
         <v>0.7010309278350515</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>0.647602074895542</v>
       </c>
       <c r="I46">
@@ -2172,16 +2226,16 @@
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
-      <c r="H47">
-        <v>0.76563643273825299</v>
+      <c r="H47" s="4">
+        <v>0.76563643273825355</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>1.0208620723636679</v>
+        <v>1.020862072363667</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="2"/>
-        <v>2.1942529484804951</v>
+        <v>2.1942529484804933</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2207,20 +2261,545 @@
         <f t="shared" si="0"/>
         <v>0.83950617283950613</v>
       </c>
-      <c r="H48">
-        <v>0.79765582924965095</v>
+      <c r="H48" s="4">
+        <v>0.79765582924965128</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>1.0524666680230037</v>
+        <v>1.0524666680230033</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="2"/>
-        <v>2.2315388852287747</v>
+        <v>2.2315388852287739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83950617283950613</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.69368510746583689</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>1.2102121896581883</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5660057868370236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C50">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.76013261551234812</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>1.1182259288099077</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3022298534321632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C51">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.68872538575047015</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>1.1753941792659657</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4973669267698049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>89</v>
+      </c>
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7640449438202247</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.75376862073595918</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1.0136332593339212</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2420673314178692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="C53">
+        <v>68</v>
+      </c>
+      <c r="D53">
+        <v>84</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.69249430625503272</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>1.1689970620865684</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2960477590041481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C54">
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87012987012987009</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.85099626875964751</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>1.022483766465992</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0211604482202388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C55">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>104</v>
+      </c>
+      <c r="E55">
+        <v>64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.63745043843905569</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>1.0257207688918482</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4786240697692423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C56">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>94</v>
+      </c>
+      <c r="E56">
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.66521151538639223</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>1.0874800549701176</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5856437542289497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C57">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>78</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.70614668860014296</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>1.1982692262301078</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3791090818968685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C58">
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <v>82</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81707317073170727</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.68491564288454709</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>1.1929544597500708</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5112581642261191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C59">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.70982322136628762</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>1.1404583354791007</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5076666223652224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C60">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>78</v>
+      </c>
+      <c r="E60">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85897435897435892</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.81277383798937897</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>1.0568430217922242</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1654240303229333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C61">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>97</v>
+      </c>
+      <c r="E61">
+        <v>55</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69072164948453607</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.68593744812910895</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>1.0069746904305574</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4492029186949797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C62">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>77</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.66185471762054793</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>1.2754397931780135</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7196300820688104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C63">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <v>90</v>
+      </c>
+      <c r="E63">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.65415387744932418</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1.1040555549992457</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5987769217674552</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -50,9 +50,6 @@
     <t>long_paso_c</t>
   </si>
   <si>
-    <t>lps/lpc</t>
-  </si>
-  <si>
     <t>est/lpc</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>db62</t>
+  </si>
+  <si>
+    <t>lpr/lpc</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,15 +622,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>1.83</v>
@@ -645,7 +645,7 @@
         <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G63" si="0">C2/D2</f>
@@ -665,7 +665,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1.7</v>
@@ -680,7 +680,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
@@ -700,7 +700,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1.76</v>
@@ -715,7 +715,7 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>1.78</v>
@@ -750,7 +750,7 @@
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>1.76</v>
@@ -785,7 +785,7 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1.67</v>
@@ -820,7 +820,7 @@
         <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -840,7 +840,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>1.8</v>
@@ -855,7 +855,7 @@
         <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -875,7 +875,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>1.7</v>
@@ -890,7 +890,7 @@
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -910,7 +910,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>1.65</v>
@@ -925,7 +925,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -945,7 +945,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1.6</v>
@@ -960,7 +960,7 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>1.67</v>
@@ -995,7 +995,7 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>1.5</v>
@@ -1030,7 +1030,7 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>1.7</v>
@@ -1065,7 +1065,7 @@
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>1.68</v>
@@ -1100,7 +1100,7 @@
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>1.78</v>
@@ -1135,7 +1135,7 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1.6</v>
@@ -1170,7 +1170,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>1.62</v>
@@ -1205,7 +1205,7 @@
         <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>1.76</v>
@@ -1240,7 +1240,7 @@
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>1.6</v>
@@ -1275,7 +1275,7 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>1.69</v>
@@ -1310,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>1.7</v>
@@ -1345,7 +1345,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>1.76</v>
@@ -1380,7 +1380,7 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>1.78</v>
@@ -1415,7 +1415,7 @@
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>1.65</v>
@@ -1450,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>1.64</v>
@@ -1485,7 +1485,7 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>1.76</v>
@@ -1520,7 +1520,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>1.77</v>
@@ -1555,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>1.6</v>
@@ -1590,7 +1590,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>1.62</v>
@@ -1625,7 +1625,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>1.84</v>
@@ -1660,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>1.9</v>
@@ -1695,7 +1695,7 @@
         <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>1.63</v>
@@ -1730,7 +1730,7 @@
         <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>1.71</v>
@@ -1765,7 +1765,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>1.53</v>
@@ -1800,7 +1800,7 @@
         <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>1.7</v>
@@ -1835,7 +1835,7 @@
         <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>1.8</v>
@@ -1870,7 +1870,7 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>1.88</v>
@@ -1905,7 +1905,7 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>1.77</v>
@@ -1940,7 +1940,7 @@
         <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>1.7</v>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>1.79</v>
@@ -2010,7 +2010,7 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2">
         <v>1.64</v>
@@ -2045,7 +2045,7 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
         <v>1.76</v>
@@ -2080,7 +2080,7 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>1.76</v>
@@ -2115,7 +2115,7 @@
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2">
         <v>1.63</v>
@@ -2150,7 +2150,7 @@
         <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2">
         <v>1.78</v>
@@ -2185,7 +2185,7 @@
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>1.68</v>
@@ -2220,7 +2220,7 @@
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>1.78</v>
@@ -2255,7 +2255,7 @@
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
         <v>1.78</v>
@@ -2290,7 +2290,7 @@
         <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
         <v>1.75</v>
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2">
         <v>1.72</v>
@@ -2360,7 +2360,7 @@
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2">
         <v>1.69</v>
@@ -2395,7 +2395,7 @@
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2">
         <v>1.59</v>
@@ -2430,7 +2430,7 @@
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>1.72</v>
@@ -2465,7 +2465,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>1.58</v>
@@ -2500,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
         <v>1.72</v>
@@ -2535,7 +2535,7 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2">
         <v>1.68</v>
@@ -2570,7 +2570,7 @@
         <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2">
         <v>1.72</v>
@@ -2605,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2">
         <v>1.78</v>
@@ -2640,7 +2640,7 @@
         <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>1.76</v>
@@ -2675,7 +2675,7 @@
         <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2">
         <v>1.68</v>
@@ -2710,7 +2710,7 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
         <v>1.8</v>
@@ -2745,7 +2745,7 @@
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2">
         <v>1.7</v>
@@ -2780,7 +2780,7 @@
         <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -50,9 +50,6 @@
     <t>long_paso_c</t>
   </si>
   <si>
-    <t>est/lpc</t>
-  </si>
-  <si>
     <t>db1</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>lpr/lpc</t>
+  </si>
+  <si>
+    <t>lpc/est</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,15 +622,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>1.83</v>
@@ -645,27 +645,27 @@
         <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G63" si="0">C2/D2</f>
         <v>0.76760563380281688</v>
       </c>
       <c r="H2" s="4">
-        <v>0.71400644065523977</v>
+        <v>0.71400644099999999</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I63" si="1">G2/H2</f>
-        <v>1.0750682208109907</v>
+        <v>1.0750682202918906</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J63" si="2">B2/H2</f>
-        <v>2.5630020904582027</v>
+        <f>H2/B2</f>
+        <v>0.39016745409836062</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>1.7</v>
@@ -680,27 +680,27 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>0.75172413793103443</v>
       </c>
       <c r="H3" s="4">
-        <v>0.72003276456084997</v>
+        <v>0.72003276500000002</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>1.0440137934410709</v>
+        <v>1.0440137928043238</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3610036704882935</v>
+        <f t="shared" ref="J3:J63" si="2">H3/B3</f>
+        <v>0.42354868529411765</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1.76</v>
@@ -715,27 +715,27 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>0.80147058823529416</v>
       </c>
       <c r="H4" s="4">
-        <v>0.7701989543476091</v>
+        <v>0.77019895400000005</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1.0406020207001883</v>
+        <v>1.0406020211698368</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>2.285123850227496</v>
+        <v>0.43761304204545459</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>1.78</v>
@@ -750,27 +750,27 @@
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0.79562043795620441</v>
       </c>
       <c r="H5" s="4">
-        <v>0.70443997090831234</v>
+        <v>0.704439971</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1.1294368162134851</v>
+        <v>1.1294368160664814</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>2.5268299266222063</v>
+        <v>0.39575279269662922</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>1.76</v>
@@ -785,27 +785,27 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0.80147058823529416</v>
       </c>
       <c r="H6" s="4">
-        <v>0.75323303754902438</v>
+        <v>0.75323303799999997</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>1.0640406730475231</v>
+        <v>1.0640406724104607</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2.3365942706482121</v>
+        <v>0.42797331704545455</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>1.67</v>
@@ -820,27 +820,27 @@
         <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0.81060606060606055</v>
       </c>
       <c r="H7" s="4">
-        <v>0.76227181974100933</v>
+        <v>0.76227182000000004</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>1.0634081434119831</v>
+        <v>1.0634081430506779</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>2.1908195433059583</v>
+        <v>0.45645019161676653</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>1.8</v>
@@ -855,27 +855,27 @@
         <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0.689873417721519</v>
       </c>
       <c r="H8" s="4">
-        <v>0.65678586811234074</v>
+        <v>0.65678586800000005</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.0503779865183074</v>
+        <v>1.0503779866979703</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>2.7406192602367576</v>
+        <v>0.36488103777777781</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1.7</v>
@@ -890,27 +890,27 @@
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.65644171779141103</v>
       </c>
       <c r="H9" s="4">
-        <v>0.68676322807014401</v>
+        <v>0.686763228</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0.95584866946947833</v>
+        <v>0.9558486695671059</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>2.4753800589718922</v>
+        <v>0.40397836941176474</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1.65</v>
@@ -925,27 +925,27 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0.66019417475728159</v>
       </c>
       <c r="H10" s="4">
-        <v>0.63512929369686477</v>
+        <v>0.63512929399999996</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.0394642182452694</v>
+        <v>1.0394642177491527</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>2.5978962336879925</v>
+        <v>0.38492684484848483</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1.6</v>
@@ -960,27 +960,27 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="H11" s="4">
-        <v>0.65492678198584342</v>
+        <v>0.65492678199999999</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.2073069786840629</v>
+        <v>1.2073069786579664</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>2.4430211803959865</v>
+        <v>0.40932923874999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>1.67</v>
@@ -995,27 +995,27 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="H12" s="4">
-        <v>0.66496331561689381</v>
+        <v>0.66496331600000003</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.2782660036087037</v>
+        <v>1.2782660028722546</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>2.5114167365018063</v>
+        <v>0.39818162634730542</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1.5</v>
@@ -1030,27 +1030,27 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="H13" s="4">
-        <v>0.66951465786163422</v>
+        <v>0.66951465799999998</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.1285123435067541</v>
+        <v>1.1285123432735293</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>2.2404289172560561</v>
+        <v>0.44634310533333332</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1.7</v>
@@ -1065,27 +1065,27 @@
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="H14" s="4">
-        <v>0.73861109797385283</v>
+        <v>0.73861109800000002</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.1508085951209068</v>
+        <v>1.1508085950801676</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>2.3016171902418137</v>
+        <v>0.43447711647058823</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1.68</v>
@@ -1100,27 +1100,27 @@
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
       <c r="H15" s="4">
-        <v>0.72286134076268849</v>
+        <v>0.72286134099999999</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.0115118273270172</v>
+        <v>1.0115118269949435</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>2.3240971750231347</v>
+        <v>0.43027460773809523</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>1.78</v>
@@ -1135,27 +1135,27 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="H16" s="4">
-        <v>0.71952895790982185</v>
+        <v>0.71952895800000005</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.0739349184388465</v>
+        <v>1.0739349183042508</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>2.4738406709450134</v>
+        <v>0.40422975168539327</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>1.6</v>
@@ -1170,27 +1170,27 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="H17" s="4">
-        <v>0.65950785364818998</v>
+        <v>0.659507854</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>1.1456354179500061</v>
+        <v>1.1456354173388745</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>2.4260514733058951</v>
+        <v>0.41219240874999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>1.62</v>
@@ -1205,27 +1205,27 @@
         <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="H18" s="4">
-        <v>0.70934041957896843</v>
+        <v>0.70934041999999997</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>1.0893602724428531</v>
+        <v>1.0893602717962594</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.2838117711684287</v>
+        <v>0.43786445679012342</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>1.76</v>
@@ -1240,27 +1240,27 @@
         <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
       <c r="H19" s="4">
-        <v>0.69509870216184999</v>
+        <v>0.69509870200000001</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>1.0991891388143047</v>
+        <v>1.0991891390702448</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>2.5320145103510687</v>
+        <v>0.39494244431818182</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>1.6</v>
@@ -1275,27 +1275,27 @@
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="H20" s="4">
-        <v>0.69546232318048462</v>
+        <v>0.69546232299999999</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>1.1110986849631774</v>
+        <v>1.1110986852515268</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>2.3006278653355201</v>
+        <v>0.43466395187499995</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1.69</v>
@@ -1310,27 +1310,27 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
       <c r="H21" s="4">
-        <v>0.72275684787807015</v>
+        <v>0.72275684799999995</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>1.0814275889561094</v>
+        <v>1.0814275887736715</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>2.3382690941796578</v>
+        <v>0.42766677396449704</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>1.7</v>
@@ -1345,27 +1345,27 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
       <c r="H22" s="4">
-        <v>0.72231885575030885</v>
+        <v>0.72231885600000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>1.0122715056903899</v>
+        <v>1.0122715053404681</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>2.3535312507301565</v>
+        <v>0.42489344470588236</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1.76</v>
@@ -1380,27 +1380,27 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
       <c r="H23" s="4">
-        <v>0.68143100428584025</v>
+        <v>0.68143100400000001</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.0730107539870832</v>
+        <v>1.0730107544371796</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>2.5828000031265557</v>
+        <v>0.38717670681818184</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1.78</v>
@@ -1415,27 +1415,27 @@
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
       </c>
       <c r="H24" s="4">
-        <v>0.76033227277450066</v>
+        <v>0.76033227299999995</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>1.0906656502385124</v>
+        <v>1.0906656499150429</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>2.3410817398354897</v>
+        <v>0.42715296235955053</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>1.65</v>
@@ -1450,27 +1450,27 @@
         <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>0.64761904761904765</v>
       </c>
       <c r="H25" s="4">
-        <v>0.59075893493759424</v>
+        <v>0.59075893499999999</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>1.0962492639869423</v>
+        <v>1.0962492638711383</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>2.7930174262608491</v>
+        <v>0.35803571818181817</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>1.64</v>
@@ -1485,27 +1485,27 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
       <c r="H26" s="4">
-        <v>0.67518525360624848</v>
+        <v>0.67518525399999996</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>1.0829365596976332</v>
+        <v>1.0829365590660911</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>2.4289630012512209</v>
+        <v>0.41169832560975611</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>1.76</v>
@@ -1520,27 +1520,27 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>0.86075949367088611</v>
       </c>
       <c r="H27" s="4">
-        <v>0.81575636182878331</v>
+        <v>0.81575636200000001</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>1.0551673685280414</v>
+        <v>1.0551673683065754</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>2.1575069252961598</v>
+        <v>0.46349793295454544</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>1.77</v>
@@ -1555,27 +1555,27 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H28" s="4">
-        <v>0.72979481051409689</v>
+        <v>0.72979481099999999</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>1.0961985320729368</v>
+        <v>1.0961985313430791</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>2.4253392522113724</v>
+        <v>0.41231345254237289</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>1.6</v>
@@ -1590,27 +1590,27 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
       <c r="H29" s="4">
-        <v>0.66088393121806199</v>
+        <v>0.66088393099999998</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>1.1560955074396024</v>
+        <v>1.156095507821062</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>2.4210000038146973</v>
+        <v>0.41305245687499997</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>1.62</v>
@@ -1625,27 +1625,27 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>0.74725274725274726</v>
       </c>
       <c r="H30" s="4">
-        <v>0.66759333378225705</v>
+        <v>0.66759333399999998</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>1.1193232607928827</v>
+        <v>1.1193232604278029</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
-        <v>2.4266269868542172</v>
+        <v>0.4120946506172839</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>1.84</v>
@@ -1660,27 +1660,27 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H31" s="4">
-        <v>0.72927152883639124</v>
+        <v>0.72927152900000003</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>1.0969850986455778</v>
+        <v>1.0969850983994742</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>2.5230657268848291</v>
+        <v>0.39634322228260871</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>1.9</v>
@@ -1695,27 +1695,27 @@
         <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
       <c r="H32" s="4">
-        <v>0.65358299301902334</v>
+        <v>0.653582993</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>1.0404187490542731</v>
+        <v>1.0404187490845558</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="2"/>
-        <v>2.90705238706341</v>
+        <v>0.34399104894736843</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>1.63</v>
@@ -1730,27 +1730,27 @@
         <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="H33" s="4">
-        <v>0.69730133561475405</v>
+        <v>0.69730133599999999</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>1.0158209903740587</v>
+        <v>1.0158209898128365</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
-        <v>2.3375833613784218</v>
+        <v>0.42779223067484667</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>1.71</v>
@@ -1765,27 +1765,27 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>0.73913043478260865</v>
       </c>
       <c r="H34" s="4">
-        <v>0.6514189924318351</v>
+        <v>0.65141899199999997</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>1.134646737921065</v>
+        <v>1.1346467386732388</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>2.625038600143264</v>
+        <v>0.38094677894736839</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>1.53</v>
@@ -1800,27 +1800,27 @@
         <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="H35" s="4">
-        <v>0.7034403929051567</v>
+        <v>0.70344039300000005</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>1.0069557285557191</v>
+        <v>1.0069557284199535</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>2.1750243736803534</v>
+        <v>0.45976496274509804</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>1.7</v>
@@ -1835,27 +1835,27 @@
         <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>0.68686868686868685</v>
       </c>
       <c r="H36" s="4">
-        <v>0.63614539560267935</v>
+        <v>0.63614539599999997</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>1.0797353743603735</v>
+        <v>1.0797353736859976</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="2"/>
-        <v>2.6723450515419245</v>
+        <v>0.37420317411764703</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>1.8</v>
@@ -1870,27 +1870,27 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>0.74725274725274726</v>
       </c>
       <c r="H37" s="4">
-        <v>0.68959689049786255</v>
+        <v>0.68959689000000002</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>1.0836080579093961</v>
+        <v>1.0836080586917196</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="2"/>
-        <v>2.6102205865523391</v>
+        <v>0.38310938333333333</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>1.88</v>
@@ -1905,27 +1905,27 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="H38" s="4">
-        <v>0.73161656594233904</v>
+        <v>0.73161656600000002</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>1.1064864400399739</v>
+        <v>1.1064864399527683</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="2"/>
-        <v>2.5696520383987158</v>
+        <v>0.38915774787234048</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>1.77</v>
@@ -1940,27 +1940,27 @@
         <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="H39" s="4">
-        <v>0.67294336621733275</v>
+        <v>0.67294336600000004</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>1.0749853429501219</v>
+        <v>1.0749853432972976</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="2"/>
-        <v>2.6302361964711953</v>
+        <v>0.38019399209039551</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>1.7</v>
@@ -1975,27 +1975,27 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>0.73118279569892475</v>
       </c>
       <c r="H40" s="4">
-        <v>0.66947597744088039</v>
+        <v>0.66947597700000006</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>1.092171818463036</v>
+        <v>1.0921718191822807</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="2"/>
-        <v>2.5392994779265585</v>
+        <v>0.39380939823529415</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>1.79</v>
@@ -2010,27 +2010,27 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>0.77011494252873558</v>
       </c>
       <c r="H41" s="4">
-        <v>0.75689674012923303</v>
+        <v>0.75689673999999996</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>1.0174636799165573</v>
+        <v>1.0174636800902797</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="2"/>
-        <v>2.3649196846776936</v>
+        <v>0.42284734078212288</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>1.64</v>
@@ -2045,27 +2045,27 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>0.77906976744186052</v>
       </c>
       <c r="H42" s="4">
-        <v>0.71319326787936321</v>
+        <v>0.71319326800000005</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>1.0923683698787245</v>
+        <v>1.0923683696939501</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="2"/>
-        <v>2.2995169386223178</v>
+        <v>0.43487394390243905</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>1.76</v>
@@ -2080,27 +2080,27 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>0.7528089887640449</v>
       </c>
       <c r="H43" s="4">
-        <v>0.67283354464977407</v>
+        <v>0.67283354500000003</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>1.1188636398262515</v>
+        <v>1.1188636392438562</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="2"/>
-        <v>2.6158029931699112</v>
+        <v>0.3822917869318182</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>1.76</v>
@@ -2115,27 +2115,27 @@
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>0.87179487179487181</v>
       </c>
       <c r="H44" s="4">
-        <v>0.86373458348553034</v>
+        <v>0.86373458299999994</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>1.0093319041097264</v>
+        <v>1.0093319046771014</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="2"/>
-        <v>2.0376629970026947</v>
+        <v>0.4907582857954545</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>1.63</v>
@@ -2150,27 +2150,27 @@
         <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
       <c r="H45" s="4">
-        <v>0.70727763495714058</v>
+        <v>0.70727763499999996</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>1.0802617049619052</v>
+        <v>1.0802617048964438</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="2"/>
-        <v>2.3046112579238764</v>
+        <v>0.43391265950920244</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>1.78</v>
@@ -2185,27 +2185,27 @@
         <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>0.7010309278350515</v>
       </c>
       <c r="H46" s="4">
-        <v>0.647602074895542</v>
+        <v>0.647602075</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>1.082502596904322</v>
+        <v>1.0825025967297148</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="2"/>
-        <v>2.7486014467867688</v>
+        <v>0.36382139044943818</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>1.68</v>
@@ -2220,27 +2220,27 @@
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>0.7816091954022989</v>
       </c>
       <c r="H47" s="4">
-        <v>0.76563643273825355</v>
+        <v>0.76563643299999995</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>1.020862072363667</v>
+        <v>1.0208620720146673</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="2"/>
-        <v>2.1942529484804933</v>
+        <v>0.4557359720238095</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>1.78</v>
@@ -2255,27 +2255,27 @@
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>0.83950617283950613</v>
       </c>
       <c r="H48" s="4">
-        <v>0.79765582924965128</v>
+        <v>0.79765582899999998</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>1.0524666680230033</v>
+        <v>1.0524666683524055</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="2"/>
-        <v>2.2315388852287739</v>
+        <v>0.44812125224719102</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>1.78</v>
@@ -2290,27 +2290,27 @@
         <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>0.83950617283950613</v>
       </c>
       <c r="H49" s="4">
-        <v>0.69368510746583689</v>
+        <v>0.69368510699999997</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>1.2102121896581883</v>
+        <v>1.2102121904708936</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="2"/>
-        <v>2.5660057868370236</v>
+        <v>0.38971073426966291</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>1.75</v>
@@ -2325,27 +2325,27 @@
         <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="H50" s="4">
-        <v>0.76013261551234812</v>
+        <v>0.76013261600000004</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>1.1182259288099077</v>
+        <v>1.1182259280925264</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="2"/>
-        <v>2.3022298534321632</v>
+        <v>0.43436149485714287</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
         <v>1.72</v>
@@ -2360,27 +2360,27 @@
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="H51" s="4">
-        <v>0.68872538575047015</v>
+        <v>0.68872538599999999</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>1.1753941792659657</v>
+        <v>1.1753941788401125</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="2"/>
-        <v>2.4973669267698049</v>
+        <v>0.40042173604651166</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>1.69</v>
@@ -2395,27 +2395,27 @@
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>0.7640449438202247</v>
       </c>
       <c r="H52" s="4">
-        <v>0.75376862073595918</v>
+        <v>0.75376862099999997</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>1.0136332593339212</v>
+        <v>1.0136332589788515</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="2"/>
-        <v>2.2420673314178692</v>
+        <v>0.44601693550295857</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
         <v>1.59</v>
@@ -2430,27 +2430,27 @@
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="H53" s="4">
-        <v>0.69249430625503272</v>
+        <v>0.69249430599999995</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>1.1689970620865684</v>
+        <v>1.1689970625170882</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="2"/>
-        <v>2.2960477590041481</v>
+        <v>0.43553101006289302</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2">
         <v>1.72</v>
@@ -2465,27 +2465,27 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>0.87012987012987009</v>
       </c>
       <c r="H54" s="4">
-        <v>0.85099626875964751</v>
+        <v>0.85099626900000003</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>1.022483766465992</v>
+        <v>1.0224837661772053</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="2"/>
-        <v>2.0211604482202388</v>
+        <v>0.49476527267441861</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>1.58</v>
@@ -2500,27 +2500,27 @@
         <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="H55" s="4">
-        <v>0.63745043843905569</v>
+        <v>0.63745043800000001</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>1.0257207688918482</v>
+        <v>1.0257207695983321</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="2"/>
-        <v>2.4786240697692423</v>
+        <v>0.40344964430379743</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2">
         <v>1.72</v>
@@ -2535,27 +2535,27 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="H56" s="4">
-        <v>0.66521151538639223</v>
+        <v>0.66521151499999998</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>1.0874800549701176</v>
+        <v>1.087480055601787</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="2"/>
-        <v>2.5856437542289497</v>
+        <v>0.38675088081395348</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2">
         <v>1.68</v>
@@ -2570,27 +2570,27 @@
         <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="H57" s="4">
-        <v>0.70614668860014296</v>
+        <v>0.70614668899999999</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>1.1982692262301078</v>
+        <v>1.1982692255515852</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="2"/>
-        <v>2.3791090818968685</v>
+        <v>0.42032541011904762</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2">
         <v>1.72</v>
@@ -2605,27 +2605,27 @@
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>0.81707317073170727</v>
       </c>
       <c r="H58" s="4">
-        <v>0.68491564288454709</v>
+        <v>0.68491564299999996</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>1.1929544597500708</v>
+        <v>1.1929544595489803</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="2"/>
-        <v>2.5112581642261191</v>
+        <v>0.39820676918604647</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2">
         <v>1.78</v>
@@ -2640,27 +2640,27 @@
         <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="H59" s="4">
-        <v>0.70982322136628762</v>
+        <v>0.70982322099999995</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>1.1404583354791007</v>
+        <v>1.1404583360676075</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="2"/>
-        <v>2.5076666223652224</v>
+        <v>0.39877709044943815</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>1.76</v>
@@ -2675,27 +2675,27 @@
         <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>0.85897435897435892</v>
       </c>
       <c r="H60" s="4">
-        <v>0.81277383798937897</v>
+        <v>0.81277383800000003</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>1.0568430217922242</v>
+        <v>1.0568430217784137</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="2"/>
-        <v>2.1654240303229333</v>
+        <v>0.46180331704545458</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2">
         <v>1.68</v>
@@ -2710,27 +2710,27 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>0.69072164948453607</v>
       </c>
       <c r="H61" s="4">
-        <v>0.68593744812910895</v>
+        <v>0.68593744800000001</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>1.0069746904305574</v>
+        <v>1.0069746906200929</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="2"/>
-        <v>2.4492029186949797</v>
+        <v>0.4082961</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2">
         <v>1.8</v>
@@ -2745,27 +2745,27 @@
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>0.8441558441558441</v>
       </c>
       <c r="H62" s="4">
-        <v>0.66185471762054793</v>
+        <v>0.66185471799999995</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>1.2754397931780135</v>
+        <v>1.2754397924467831</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="2"/>
-        <v>2.7196300820688104</v>
+        <v>0.36769706555555554</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2">
         <v>1.7</v>
@@ -2780,22 +2780,22 @@
         <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>0.72222222222222221</v>
       </c>
       <c r="H63" s="4">
-        <v>0.65415387744932418</v>
+        <v>0.65415387700000005</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>1.1040555549992457</v>
+        <v>1.1040555557575977</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="2"/>
-        <v>2.5987769217674552</v>
+        <v>0.38479639823529416</v>
       </c>
     </row>
   </sheetData>
